--- a/Results/PFunctionAnalyzerAlg/p_values.xlsx
+++ b/Results/PFunctionAnalyzerAlg/p_values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\MatrixAlg\Results\PFunctionAnalyzerAlg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807F056B-8B6F-44D7-B016-9C6E0E3352D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D28424-CADE-4C6A-8C0A-571CB3987E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{A5685ED0-EE72-43B8-9938-72F22BCCCED6}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A5685ED0-EE72-43B8-9938-72F22BCCCED6}"/>
   </bookViews>
   <sheets>
     <sheet name="p function" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,13 +70,26 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -106,12 +119,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -431,7 +453,7 @@
   <dimension ref="B2:AR23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AS51" sqref="AS51"/>
+      <selection activeCell="AM26" sqref="AM26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -975,13 +997,19 @@
       <c r="K7" s="1">
         <v>-7</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="4">
         <v>-7</v>
       </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
+      <c r="M7" s="4">
+        <v>-7</v>
+      </c>
+      <c r="N7" s="4">
+        <v>-7</v>
+      </c>
+      <c r="O7" s="4">
+        <v>-7</v>
+      </c>
+      <c r="P7" s="4"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -1060,14 +1088,30 @@
       <c r="J8" s="1">
         <v>-10</v>
       </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
+      <c r="K8" s="4">
+        <v>-10</v>
+      </c>
+      <c r="L8" s="4">
+        <v>-10</v>
+      </c>
+      <c r="M8" s="4">
+        <v>-10</v>
+      </c>
+      <c r="N8" s="4">
+        <v>-10</v>
+      </c>
+      <c r="O8" s="4">
+        <v>-10</v>
+      </c>
+      <c r="P8" s="4">
+        <v>-10</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>-10</v>
+      </c>
+      <c r="R8" s="4">
+        <v>-10</v>
+      </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
@@ -1137,11 +1181,21 @@
       <c r="I9" s="1">
         <v>-16</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
+      <c r="J9" s="4">
+        <v>-16</v>
+      </c>
+      <c r="K9" s="4">
+        <v>-16</v>
+      </c>
+      <c r="L9" s="4">
+        <v>-16</v>
+      </c>
+      <c r="M9" s="4">
+        <v>-16</v>
+      </c>
+      <c r="N9" s="3">
+        <v>-16</v>
+      </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1207,12 +1261,24 @@
       <c r="G10" s="1">
         <v>-18</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="H10" s="5">
+        <v>-21</v>
+      </c>
+      <c r="I10" s="5">
+        <v>-24</v>
+      </c>
+      <c r="J10" s="5">
+        <v>-26</v>
+      </c>
+      <c r="K10" s="3">
+        <v>-26</v>
+      </c>
+      <c r="L10" s="3">
+        <v>-26</v>
+      </c>
+      <c r="M10" s="3">
+        <v>-26</v>
+      </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1272,11 +1338,21 @@
       <c r="F11" s="1">
         <v>-13</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="G11" s="4">
+        <v>-19</v>
+      </c>
+      <c r="H11" s="4">
+        <v>-25</v>
+      </c>
+      <c r="I11" s="4">
+        <v>-34</v>
+      </c>
+      <c r="J11" s="3">
+        <v>-34</v>
+      </c>
+      <c r="K11" s="3">
+        <v>-34</v>
+      </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1319,6 +1395,45 @@
       <c r="AP11" s="1"/>
       <c r="AQ11" s="1"/>
       <c r="AR11" s="1"/>
+    </row>
+    <row r="12" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="B12" s="2">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4">
+        <v>-3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>-8</v>
+      </c>
+      <c r="E12" s="4">
+        <v>-11</v>
+      </c>
+      <c r="F12" s="4">
+        <v>-24</v>
+      </c>
+      <c r="G12" s="4">
+        <v>-30</v>
+      </c>
+      <c r="H12" s="3">
+        <v>-38</v>
+      </c>
+      <c r="I12" s="3">
+        <v>-39</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
     </row>
     <row r="14" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">

--- a/Results/PFunctionAnalyzerAlg/p_values.xlsx
+++ b/Results/PFunctionAnalyzerAlg/p_values.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\MatrixAlg\Results\PFunctionAnalyzerAlg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96649FA-56B9-4475-82E6-57970AC2EE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AADF27-276D-431B-9A11-1E5CF11D6B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A5685ED0-EE72-43B8-9938-72F22BCCCED6}"/>
   </bookViews>
@@ -526,10 +526,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B095AD-384E-42B0-BC69-9F6BF21B35F0}">
-  <dimension ref="B2:AW145"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:BC145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="AF82" sqref="AF82"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="AJ110" sqref="AJ110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4351,7 +4354,7 @@
       <c r="AT48" s="1"/>
       <c r="AU48" s="1"/>
     </row>
-    <row r="49" spans="2:49" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:55" x14ac:dyDescent="0.35">
       <c r="B49" s="10"/>
       <c r="C49" s="2">
         <v>10</v>
@@ -4420,7 +4423,7 @@
       <c r="AT49" s="1"/>
       <c r="AU49" s="1"/>
     </row>
-    <row r="51" spans="2:49" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:55" x14ac:dyDescent="0.35">
       <c r="C51" s="7" t="s">
         <v>8</v>
       </c>
@@ -4434,7 +4437,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="2:49" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:55" x14ac:dyDescent="0.35">
       <c r="C53" s="2" t="s">
         <v>0</v>
       </c>
@@ -4504,77 +4507,95 @@
       <c r="Y53" s="2">
         <v>35</v>
       </c>
-      <c r="AA53" s="2" t="s">
+      <c r="Z53" s="2">
+        <v>48</v>
+      </c>
+      <c r="AA53" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB53" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD53" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AB53" s="2">
+      <c r="AE53" s="2">
         <v>1</v>
       </c>
-      <c r="AC53" s="2">
-        <v>2</v>
-      </c>
-      <c r="AD53" s="2">
+      <c r="AF53" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG53" s="2">
         <v>3</v>
       </c>
-      <c r="AE53" s="2">
+      <c r="AH53" s="2">
         <v>4</v>
       </c>
-      <c r="AF53" s="2">
+      <c r="AI53" s="2">
         <v>5</v>
       </c>
-      <c r="AG53" s="2">
+      <c r="AJ53" s="2">
         <v>6</v>
       </c>
-      <c r="AH53" s="2">
+      <c r="AK53" s="2">
         <v>7</v>
       </c>
-      <c r="AI53" s="2">
+      <c r="AL53" s="2">
         <v>8</v>
       </c>
-      <c r="AJ53" s="2">
+      <c r="AM53" s="2">
         <v>9</v>
       </c>
-      <c r="AK53" s="2">
+      <c r="AN53" s="2">
         <v>10</v>
       </c>
-      <c r="AL53" s="2">
+      <c r="AO53" s="2">
         <v>11</v>
       </c>
-      <c r="AM53" s="2">
+      <c r="AP53" s="2">
         <v>12</v>
       </c>
-      <c r="AN53" s="2">
+      <c r="AQ53" s="2">
         <v>13</v>
       </c>
-      <c r="AO53" s="2">
+      <c r="AR53" s="2">
         <v>14</v>
       </c>
-      <c r="AP53" s="2">
+      <c r="AS53" s="2">
         <v>15</v>
       </c>
-      <c r="AQ53" s="2">
+      <c r="AT53" s="2">
         <v>16</v>
       </c>
-      <c r="AR53" s="2">
+      <c r="AU53" s="2">
         <v>17</v>
       </c>
-      <c r="AS53" s="2">
+      <c r="AV53" s="2">
         <v>18</v>
       </c>
-      <c r="AT53" s="2">
+      <c r="AW53" s="2">
         <v>19</v>
       </c>
-      <c r="AU53" s="2">
+      <c r="AX53" s="2">
         <v>20</v>
       </c>
-      <c r="AV53" s="2">
+      <c r="AY53" s="2">
         <v>24</v>
       </c>
-      <c r="AW53" s="2">
+      <c r="AZ53" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="54" spans="2:49" x14ac:dyDescent="0.35">
+      <c r="BA53" s="2">
+        <v>48</v>
+      </c>
+      <c r="BB53" s="2">
+        <v>63</v>
+      </c>
+      <c r="BC53" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="2:55" x14ac:dyDescent="0.35">
       <c r="B54" s="12" t="s">
         <v>5</v>
       </c>
@@ -4607,21 +4628,18 @@
       <c r="U54" s="1"/>
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
-      <c r="AA54" s="2">
-        <v>2</v>
-      </c>
-      <c r="AB54" s="1">
+      <c r="AD54" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE54" s="1">
         <v>1</v>
       </c>
-      <c r="AC54" s="1">
+      <c r="AF54" s="1">
         <v>1</v>
       </c>
-      <c r="AD54" s="1">
+      <c r="AG54" s="1">
         <v>1</v>
       </c>
-      <c r="AE54" s="1"/>
-      <c r="AF54" s="1"/>
-      <c r="AG54" s="1"/>
       <c r="AH54" s="1"/>
       <c r="AI54" s="1"/>
       <c r="AJ54" s="1"/>
@@ -4636,8 +4654,11 @@
       <c r="AS54" s="1"/>
       <c r="AT54" s="1"/>
       <c r="AU54" s="1"/>
-    </row>
-    <row r="55" spans="2:49" x14ac:dyDescent="0.35">
+      <c r="AV54" s="1"/>
+      <c r="AW54" s="1"/>
+      <c r="AX54" s="1"/>
+    </row>
+    <row r="55" spans="2:55" x14ac:dyDescent="0.35">
       <c r="B55" s="12"/>
       <c r="C55" s="2">
         <v>3</v>
@@ -4678,16 +4699,7 @@
       <c r="U55" s="1"/>
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
-      <c r="AA55" s="2">
-        <v>3</v>
-      </c>
-      <c r="AB55" s="1">
-        <v>3</v>
-      </c>
-      <c r="AC55" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD55" s="1">
+      <c r="AD55" s="2">
         <v>3</v>
       </c>
       <c r="AE55" s="1">
@@ -4703,11 +4715,17 @@
         <v>3</v>
       </c>
       <c r="AI55" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ55" s="1"/>
-      <c r="AK55" s="1"/>
-      <c r="AL55" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="AJ55" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK55" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL55" s="1">
+        <v>2</v>
+      </c>
       <c r="AM55" s="1"/>
       <c r="AN55" s="1"/>
       <c r="AO55" s="1"/>
@@ -4717,8 +4735,11 @@
       <c r="AS55" s="1"/>
       <c r="AT55" s="1"/>
       <c r="AU55" s="1"/>
-    </row>
-    <row r="56" spans="2:49" x14ac:dyDescent="0.35">
+      <c r="AV55" s="1"/>
+      <c r="AW55" s="1"/>
+      <c r="AX55" s="1"/>
+    </row>
+    <row r="56" spans="2:55" x14ac:dyDescent="0.35">
       <c r="B56" s="12"/>
       <c r="C56" s="2">
         <v>4</v>
@@ -4773,20 +4794,11 @@
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
-      <c r="AA56" s="2">
+      <c r="AD56" s="2">
         <v>4</v>
       </c>
-      <c r="AB56" s="1">
+      <c r="AE56" s="1">
         <v>4</v>
-      </c>
-      <c r="AC56" s="1">
-        <v>7</v>
-      </c>
-      <c r="AD56" s="1">
-        <v>7</v>
-      </c>
-      <c r="AE56" s="1">
-        <v>7</v>
       </c>
       <c r="AF56" s="1">
         <v>7</v>
@@ -4816,18 +4828,27 @@
         <v>7</v>
       </c>
       <c r="AO56" s="1">
+        <v>7</v>
+      </c>
+      <c r="AP56" s="1">
+        <v>7</v>
+      </c>
+      <c r="AQ56" s="1">
+        <v>7</v>
+      </c>
+      <c r="AR56" s="1">
         <v>4</v>
       </c>
-      <c r="AP56" s="1">
-        <v>2</v>
-      </c>
-      <c r="AQ56" s="1"/>
-      <c r="AR56" s="1"/>
-      <c r="AS56" s="1"/>
+      <c r="AS56" s="1">
+        <v>2</v>
+      </c>
       <c r="AT56" s="1"/>
       <c r="AU56" s="1"/>
-    </row>
-    <row r="57" spans="2:49" x14ac:dyDescent="0.35">
+      <c r="AV56" s="1"/>
+      <c r="AW56" s="1"/>
+      <c r="AX56" s="1"/>
+    </row>
+    <row r="57" spans="2:55" x14ac:dyDescent="0.35">
       <c r="B57" s="12"/>
       <c r="C57" s="2">
         <v>5</v>
@@ -4895,23 +4916,14 @@
       <c r="X57" s="1">
         <v>-1</v>
       </c>
-      <c r="AA57" s="2">
+      <c r="AD57" s="2">
         <v>5</v>
       </c>
-      <c r="AB57" s="1">
+      <c r="AE57" s="1">
         <v>6</v>
       </c>
-      <c r="AC57" s="1">
+      <c r="AF57" s="1">
         <v>13</v>
-      </c>
-      <c r="AD57" s="1">
-        <v>15</v>
-      </c>
-      <c r="AE57" s="1">
-        <v>15</v>
-      </c>
-      <c r="AF57" s="1">
-        <v>15</v>
       </c>
       <c r="AG57" s="1">
         <v>15</v>
@@ -4959,10 +4971,19 @@
         <v>15</v>
       </c>
       <c r="AV57" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="2:49" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="AW57" s="1">
+        <v>15</v>
+      </c>
+      <c r="AX57" s="1">
+        <v>15</v>
+      </c>
+      <c r="AY57" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:55" x14ac:dyDescent="0.35">
       <c r="B58" s="12"/>
       <c r="C58" s="2">
         <v>6</v>
@@ -4973,12 +4994,24 @@
       <c r="E58" s="1">
         <v>-14</v>
       </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
+      <c r="F58" s="1">
+        <v>-24</v>
+      </c>
+      <c r="G58" s="1">
+        <v>-28</v>
+      </c>
+      <c r="H58" s="1">
+        <v>-30</v>
+      </c>
+      <c r="I58" s="1">
+        <v>-31</v>
+      </c>
+      <c r="J58" s="1">
+        <v>-31</v>
+      </c>
+      <c r="K58" s="1">
+        <v>-31</v>
+      </c>
       <c r="L58" s="1"/>
       <c r="M58" s="4"/>
       <c r="N58" s="1"/>
@@ -4991,25 +5024,36 @@
       <c r="U58" s="4"/>
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
-      <c r="Y58" s="1"/>
-      <c r="AA58" s="2">
+      <c r="Y58" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AD58" s="2">
         <v>6</v>
       </c>
-      <c r="AB58" s="1">
+      <c r="AE58" s="1">
         <v>6</v>
       </c>
-      <c r="AC58" s="1">
+      <c r="AF58" s="1">
         <v>18</v>
       </c>
-      <c r="AD58" s="1"/>
-      <c r="AE58" s="1"/>
-      <c r="AF58" s="1"/>
-      <c r="AG58" s="1"/>
-      <c r="AH58" s="1"/>
-      <c r="AI58" s="1"/>
-      <c r="AJ58" s="1"/>
-      <c r="AK58" s="1"/>
-      <c r="AL58" s="1"/>
+      <c r="AG58" s="1">
+        <v>25</v>
+      </c>
+      <c r="AH58" s="1">
+        <v>27</v>
+      </c>
+      <c r="AI58" s="1">
+        <v>31</v>
+      </c>
+      <c r="AJ58" s="1">
+        <v>31</v>
+      </c>
+      <c r="AK58" s="1">
+        <v>31</v>
+      </c>
+      <c r="AL58" s="1">
+        <v>31</v>
+      </c>
       <c r="AM58" s="1"/>
       <c r="AN58" s="1"/>
       <c r="AO58" s="1"/>
@@ -5019,9 +5063,14 @@
       <c r="AS58" s="1"/>
       <c r="AT58" s="1"/>
       <c r="AU58" s="1"/>
+      <c r="AV58" s="1"/>
       <c r="AW58" s="1"/>
-    </row>
-    <row r="59" spans="2:49" x14ac:dyDescent="0.35">
+      <c r="AX58" s="1"/>
+      <c r="AZ58" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:55" x14ac:dyDescent="0.35">
       <c r="B59" s="12"/>
       <c r="C59" s="2">
         <v>7</v>
@@ -5029,12 +5078,24 @@
       <c r="D59" s="1">
         <v>-6</v>
       </c>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
+      <c r="E59" s="1">
+        <v>-22</v>
+      </c>
+      <c r="F59" s="1">
+        <v>-44</v>
+      </c>
+      <c r="G59" s="1">
+        <v>-52</v>
+      </c>
+      <c r="H59" s="1">
+        <v>-57</v>
+      </c>
+      <c r="I59" s="1">
+        <v>-59</v>
+      </c>
+      <c r="J59" s="1">
+        <v>-61</v>
+      </c>
       <c r="K59" s="1"/>
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
@@ -5048,21 +5109,33 @@
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
-      <c r="AA59" s="2">
+      <c r="Z59" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AD59" s="2">
         <v>7</v>
       </c>
-      <c r="AB59" s="1">
+      <c r="AE59" s="1">
         <v>6</v>
       </c>
-      <c r="AC59" s="1"/>
-      <c r="AD59" s="1"/>
-      <c r="AE59" s="1"/>
-      <c r="AF59" s="1"/>
-      <c r="AG59" s="1"/>
-      <c r="AH59" s="1"/>
-      <c r="AI59" s="1"/>
-      <c r="AJ59" s="1"/>
-      <c r="AK59" s="1"/>
+      <c r="AF59" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG59" s="1">
+        <v>27</v>
+      </c>
+      <c r="AH59" s="1">
+        <v>44</v>
+      </c>
+      <c r="AI59" s="1">
+        <v>53</v>
+      </c>
+      <c r="AJ59" s="1">
+        <v>63</v>
+      </c>
+      <c r="AK59" s="1">
+        <v>63</v>
+      </c>
       <c r="AL59" s="1"/>
       <c r="AM59" s="1"/>
       <c r="AN59" s="1"/>
@@ -5073,8 +5146,14 @@
       <c r="AS59" s="1"/>
       <c r="AT59" s="1"/>
       <c r="AU59" s="1"/>
-    </row>
-    <row r="60" spans="2:49" x14ac:dyDescent="0.35">
+      <c r="AV59" s="1"/>
+      <c r="AW59" s="1"/>
+      <c r="AX59" s="1"/>
+      <c r="BA59" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:55" x14ac:dyDescent="0.35">
       <c r="B60" s="12"/>
       <c r="C60" s="2">
         <v>8</v>
@@ -5082,10 +5161,18 @@
       <c r="D60" s="1">
         <v>-6</v>
       </c>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
+      <c r="E60" s="1">
+        <v>-16</v>
+      </c>
+      <c r="F60" s="1">
+        <v>-48</v>
+      </c>
+      <c r="G60" s="1">
+        <v>-73</v>
+      </c>
+      <c r="H60" s="1">
+        <v>-86</v>
+      </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
@@ -5101,19 +5188,27 @@
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
-      <c r="AA60" s="2">
+      <c r="AA60" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AD60" s="2">
         <v>8</v>
       </c>
-      <c r="AB60" s="1">
+      <c r="AE60" s="1">
         <v>6</v>
       </c>
-      <c r="AC60" s="1"/>
-      <c r="AD60" s="1"/>
-      <c r="AE60" s="1"/>
-      <c r="AF60" s="1"/>
-      <c r="AG60" s="1"/>
-      <c r="AH60" s="1"/>
-      <c r="AI60" s="1"/>
+      <c r="AF60" s="1">
+        <v>24</v>
+      </c>
+      <c r="AG60" s="1">
+        <v>50</v>
+      </c>
+      <c r="AH60" s="1">
+        <v>80</v>
+      </c>
+      <c r="AI60" s="1">
+        <v>94</v>
+      </c>
       <c r="AJ60" s="1"/>
       <c r="AK60" s="1"/>
       <c r="AL60" s="1"/>
@@ -5126,8 +5221,14 @@
       <c r="AS60" s="1"/>
       <c r="AT60" s="1"/>
       <c r="AU60" s="1"/>
-    </row>
-    <row r="61" spans="2:49" x14ac:dyDescent="0.35">
+      <c r="AV60" s="1"/>
+      <c r="AW60" s="1"/>
+      <c r="AX60" s="1"/>
+      <c r="BB60" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:55" x14ac:dyDescent="0.35">
       <c r="B61" s="12"/>
       <c r="C61" s="2">
         <v>9</v>
@@ -5135,10 +5236,18 @@
       <c r="D61" s="1">
         <v>-6</v>
       </c>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
+      <c r="E61" s="1">
+        <v>-28</v>
+      </c>
+      <c r="F61" s="1">
+        <v>-66</v>
+      </c>
+      <c r="G61" s="1">
+        <v>-110</v>
+      </c>
+      <c r="H61" s="1">
+        <v>-148</v>
+      </c>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
@@ -5154,19 +5263,27 @@
       <c r="U61" s="1"/>
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
-      <c r="AA61" s="2">
+      <c r="AB61" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AD61" s="2">
         <v>9</v>
       </c>
-      <c r="AB61" s="1">
+      <c r="AE61" s="1">
         <v>6</v>
       </c>
-      <c r="AC61" s="1"/>
-      <c r="AD61" s="1"/>
-      <c r="AE61" s="1"/>
-      <c r="AF61" s="1"/>
-      <c r="AG61" s="1"/>
-      <c r="AH61" s="1"/>
-      <c r="AI61" s="1"/>
+      <c r="AF61" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG61" s="1">
+        <v>74</v>
+      </c>
+      <c r="AH61" s="1">
+        <v>148</v>
+      </c>
+      <c r="AI61" s="1">
+        <v>174</v>
+      </c>
       <c r="AJ61" s="1"/>
       <c r="AK61" s="1"/>
       <c r="AL61" s="1"/>
@@ -5179,8 +5296,14 @@
       <c r="AS61" s="1"/>
       <c r="AT61" s="1"/>
       <c r="AU61" s="1"/>
-    </row>
-    <row r="62" spans="2:49" x14ac:dyDescent="0.35">
+      <c r="AV61" s="1"/>
+      <c r="AW61" s="1"/>
+      <c r="AX61" s="1"/>
+      <c r="BC61" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:55" x14ac:dyDescent="0.35">
       <c r="B62" s="12"/>
       <c r="C62" s="2">
         <v>10</v>
@@ -5188,9 +5311,15 @@
       <c r="D62" s="1">
         <v>-6</v>
       </c>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
+      <c r="E62" s="1">
+        <v>-18</v>
+      </c>
+      <c r="F62" s="1">
+        <v>-68</v>
+      </c>
+      <c r="G62" s="1">
+        <v>-143</v>
+      </c>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
@@ -5207,18 +5336,21 @@
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
-      <c r="AA62" s="2">
+      <c r="AD62" s="2">
         <v>10</v>
       </c>
-      <c r="AB62" s="1">
+      <c r="AE62" s="1">
         <v>6</v>
       </c>
-      <c r="AC62" s="1"/>
-      <c r="AD62" s="1"/>
-      <c r="AE62" s="1"/>
-      <c r="AF62" s="1"/>
-      <c r="AG62" s="1"/>
-      <c r="AH62" s="1"/>
+      <c r="AF62" s="1">
+        <v>28</v>
+      </c>
+      <c r="AG62" s="1">
+        <v>60</v>
+      </c>
+      <c r="AH62" s="1">
+        <v>156</v>
+      </c>
       <c r="AI62" s="1"/>
       <c r="AJ62" s="1"/>
       <c r="AK62" s="1"/>
@@ -5232,8 +5364,11 @@
       <c r="AS62" s="1"/>
       <c r="AT62" s="1"/>
       <c r="AU62" s="1"/>
-    </row>
-    <row r="64" spans="2:49" x14ac:dyDescent="0.35">
+      <c r="AV62" s="1"/>
+      <c r="AW62" s="1"/>
+      <c r="AX62" s="1"/>
+    </row>
+    <row r="64" spans="2:55" x14ac:dyDescent="0.35">
       <c r="C64" s="2" t="s">
         <v>2</v>
       </c>
@@ -5303,77 +5438,95 @@
       <c r="Y64" s="2">
         <v>35</v>
       </c>
-      <c r="AA64" s="2" t="s">
+      <c r="Z64" s="2">
+        <v>48</v>
+      </c>
+      <c r="AA64" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB64" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD64" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AB64" s="2">
+      <c r="AE64" s="2">
         <v>1</v>
       </c>
-      <c r="AC64" s="2">
-        <v>2</v>
-      </c>
-      <c r="AD64" s="2">
+      <c r="AF64" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG64" s="2">
         <v>3</v>
       </c>
-      <c r="AE64" s="2">
+      <c r="AH64" s="2">
         <v>4</v>
       </c>
-      <c r="AF64" s="2">
+      <c r="AI64" s="2">
         <v>5</v>
       </c>
-      <c r="AG64" s="2">
+      <c r="AJ64" s="2">
         <v>6</v>
       </c>
-      <c r="AH64" s="2">
+      <c r="AK64" s="2">
         <v>7</v>
       </c>
-      <c r="AI64" s="2">
+      <c r="AL64" s="2">
         <v>8</v>
       </c>
-      <c r="AJ64" s="2">
+      <c r="AM64" s="2">
         <v>9</v>
       </c>
-      <c r="AK64" s="2">
+      <c r="AN64" s="2">
         <v>10</v>
       </c>
-      <c r="AL64" s="2">
+      <c r="AO64" s="2">
         <v>11</v>
       </c>
-      <c r="AM64" s="2">
+      <c r="AP64" s="2">
         <v>12</v>
       </c>
-      <c r="AN64" s="2">
+      <c r="AQ64" s="2">
         <v>13</v>
       </c>
-      <c r="AO64" s="2">
+      <c r="AR64" s="2">
         <v>14</v>
       </c>
-      <c r="AP64" s="2">
+      <c r="AS64" s="2">
         <v>15</v>
       </c>
-      <c r="AQ64" s="2">
+      <c r="AT64" s="2">
         <v>16</v>
       </c>
-      <c r="AR64" s="2">
+      <c r="AU64" s="2">
         <v>17</v>
       </c>
-      <c r="AS64" s="2">
+      <c r="AV64" s="2">
         <v>18</v>
       </c>
-      <c r="AT64" s="2">
+      <c r="AW64" s="2">
         <v>19</v>
       </c>
-      <c r="AU64" s="2">
+      <c r="AX64" s="2">
         <v>20</v>
       </c>
-      <c r="AV64" s="2">
+      <c r="AY64" s="2">
         <v>24</v>
       </c>
-      <c r="AW64" s="2">
+      <c r="AZ64" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="65" spans="2:49" x14ac:dyDescent="0.35">
+      <c r="BA64" s="2">
+        <v>48</v>
+      </c>
+      <c r="BB64" s="2">
+        <v>63</v>
+      </c>
+      <c r="BC64" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="2:55" x14ac:dyDescent="0.35">
       <c r="B65" s="8" t="s">
         <v>5</v>
       </c>
@@ -5406,21 +5559,18 @@
       <c r="U65" s="1"/>
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
-      <c r="AA65" s="2">
-        <v>2</v>
-      </c>
-      <c r="AB65" s="1">
+      <c r="AD65" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE65" s="1">
         <v>1</v>
       </c>
-      <c r="AC65" s="1">
+      <c r="AF65" s="1">
         <v>1</v>
       </c>
-      <c r="AD65" s="1">
+      <c r="AG65" s="1">
         <v>1</v>
       </c>
-      <c r="AE65" s="1"/>
-      <c r="AF65" s="1"/>
-      <c r="AG65" s="1"/>
       <c r="AH65" s="1"/>
       <c r="AI65" s="1"/>
       <c r="AJ65" s="1"/>
@@ -5435,8 +5585,11 @@
       <c r="AS65" s="1"/>
       <c r="AT65" s="1"/>
       <c r="AU65" s="1"/>
-    </row>
-    <row r="66" spans="2:49" x14ac:dyDescent="0.35">
+      <c r="AV65" s="1"/>
+      <c r="AW65" s="1"/>
+      <c r="AX65" s="1"/>
+    </row>
+    <row r="66" spans="2:55" x14ac:dyDescent="0.35">
       <c r="B66" s="9"/>
       <c r="C66" s="2">
         <v>3</v>
@@ -5477,16 +5630,7 @@
       <c r="U66" s="1"/>
       <c r="V66" s="1"/>
       <c r="W66" s="1"/>
-      <c r="AA66" s="2">
-        <v>3</v>
-      </c>
-      <c r="AB66" s="1">
-        <v>3</v>
-      </c>
-      <c r="AC66" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD66" s="1">
+      <c r="AD66" s="2">
         <v>3</v>
       </c>
       <c r="AE66" s="1">
@@ -5499,14 +5643,20 @@
         <v>3</v>
       </c>
       <c r="AH66" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI66" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ66" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK66" s="1">
         <v>1</v>
       </c>
-      <c r="AI66" s="1">
+      <c r="AL66" s="1">
         <v>-2</v>
       </c>
-      <c r="AJ66" s="1"/>
-      <c r="AK66" s="1"/>
-      <c r="AL66" s="1"/>
       <c r="AM66" s="1"/>
       <c r="AN66" s="1"/>
       <c r="AO66" s="1"/>
@@ -5516,8 +5666,11 @@
       <c r="AS66" s="1"/>
       <c r="AT66" s="1"/>
       <c r="AU66" s="1"/>
-    </row>
-    <row r="67" spans="2:49" x14ac:dyDescent="0.35">
+      <c r="AV66" s="1"/>
+      <c r="AW66" s="1"/>
+      <c r="AX66" s="1"/>
+    </row>
+    <row r="67" spans="2:55" x14ac:dyDescent="0.35">
       <c r="B67" s="9"/>
       <c r="C67" s="2">
         <v>4</v>
@@ -5572,17 +5725,8 @@
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
-      <c r="AA67" s="2">
+      <c r="AD67" s="2">
         <v>4</v>
-      </c>
-      <c r="AB67" s="1">
-        <v>7</v>
-      </c>
-      <c r="AC67" s="1">
-        <v>7</v>
-      </c>
-      <c r="AD67" s="1">
-        <v>7</v>
       </c>
       <c r="AE67" s="1">
         <v>7</v>
@@ -5620,13 +5764,22 @@
       <c r="AP67" s="1">
         <v>7</v>
       </c>
-      <c r="AQ67" s="1"/>
-      <c r="AR67" s="1"/>
-      <c r="AS67" s="1"/>
+      <c r="AQ67" s="1">
+        <v>7</v>
+      </c>
+      <c r="AR67" s="1">
+        <v>7</v>
+      </c>
+      <c r="AS67" s="1">
+        <v>7</v>
+      </c>
       <c r="AT67" s="1"/>
       <c r="AU67" s="1"/>
-    </row>
-    <row r="68" spans="2:49" x14ac:dyDescent="0.35">
+      <c r="AV67" s="1"/>
+      <c r="AW67" s="1"/>
+      <c r="AX67" s="1"/>
+    </row>
+    <row r="68" spans="2:55" x14ac:dyDescent="0.35">
       <c r="B68" s="9"/>
       <c r="C68" s="2">
         <v>5</v>
@@ -5694,17 +5847,8 @@
       <c r="X68" s="1">
         <v>-15</v>
       </c>
-      <c r="AA68" s="2">
+      <c r="AD68" s="2">
         <v>5</v>
-      </c>
-      <c r="AB68" s="1">
-        <v>15</v>
-      </c>
-      <c r="AC68" s="1">
-        <v>15</v>
-      </c>
-      <c r="AD68" s="1">
-        <v>15</v>
       </c>
       <c r="AE68" s="1">
         <v>15</v>
@@ -5758,10 +5902,19 @@
         <v>15</v>
       </c>
       <c r="AV68" s="1">
+        <v>15</v>
+      </c>
+      <c r="AW68" s="1">
+        <v>15</v>
+      </c>
+      <c r="AX68" s="1">
+        <v>15</v>
+      </c>
+      <c r="AY68" s="1">
         <v>-8</v>
       </c>
     </row>
-    <row r="69" spans="2:49" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:55" x14ac:dyDescent="0.35">
       <c r="B69" s="9"/>
       <c r="C69" s="2">
         <v>6</v>
@@ -5772,12 +5925,24 @@
       <c r="E69" s="1">
         <v>-20</v>
       </c>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
+      <c r="F69" s="1">
+        <v>-26</v>
+      </c>
+      <c r="G69" s="1">
+        <v>-29</v>
+      </c>
+      <c r="H69" s="1">
+        <v>-31</v>
+      </c>
+      <c r="I69" s="1">
+        <v>-31</v>
+      </c>
+      <c r="J69" s="1">
+        <v>-31</v>
+      </c>
+      <c r="K69" s="1">
+        <v>-31</v>
+      </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
@@ -5790,25 +5955,36 @@
       <c r="U69" s="1"/>
       <c r="V69" s="1"/>
       <c r="W69" s="1"/>
-      <c r="Y69" s="1"/>
-      <c r="AA69" s="2">
+      <c r="Y69" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD69" s="2">
         <v>6</v>
       </c>
-      <c r="AB69" s="1">
+      <c r="AE69" s="1">
         <v>31</v>
       </c>
-      <c r="AC69" s="1">
+      <c r="AF69" s="1">
         <v>31</v>
       </c>
-      <c r="AD69" s="1"/>
-      <c r="AE69" s="1"/>
-      <c r="AF69" s="1"/>
-      <c r="AG69" s="1"/>
-      <c r="AH69" s="1"/>
-      <c r="AI69" s="1"/>
-      <c r="AJ69" s="1"/>
-      <c r="AK69" s="1"/>
-      <c r="AL69" s="1"/>
+      <c r="AG69" s="1">
+        <v>31</v>
+      </c>
+      <c r="AH69" s="1">
+        <v>31</v>
+      </c>
+      <c r="AI69" s="1">
+        <v>31</v>
+      </c>
+      <c r="AJ69" s="1">
+        <v>31</v>
+      </c>
+      <c r="AK69" s="1">
+        <v>31</v>
+      </c>
+      <c r="AL69" s="1">
+        <v>31</v>
+      </c>
       <c r="AM69" s="1"/>
       <c r="AN69" s="1"/>
       <c r="AO69" s="1"/>
@@ -5818,9 +5994,14 @@
       <c r="AS69" s="1"/>
       <c r="AT69" s="1"/>
       <c r="AU69" s="1"/>
+      <c r="AV69" s="1"/>
       <c r="AW69" s="1"/>
-    </row>
-    <row r="70" spans="2:49" x14ac:dyDescent="0.35">
+      <c r="AX69" s="1"/>
+      <c r="AZ69" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="2:55" x14ac:dyDescent="0.35">
       <c r="B70" s="9"/>
       <c r="C70" s="2">
         <v>7</v>
@@ -5828,12 +6009,24 @@
       <c r="D70" s="1">
         <v>-16</v>
       </c>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
+      <c r="E70" s="1">
+        <v>-40</v>
+      </c>
+      <c r="F70" s="1">
+        <v>-52</v>
+      </c>
+      <c r="G70" s="1">
+        <v>-58</v>
+      </c>
+      <c r="H70" s="1">
+        <v>-61</v>
+      </c>
+      <c r="I70" s="1">
+        <v>-63</v>
+      </c>
+      <c r="J70" s="1">
+        <v>-63</v>
+      </c>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
@@ -5847,21 +6040,33 @@
       <c r="U70" s="1"/>
       <c r="V70" s="1"/>
       <c r="W70" s="1"/>
-      <c r="AA70" s="2">
+      <c r="Z70" s="1">
+        <v>-63</v>
+      </c>
+      <c r="AD70" s="2">
         <v>7</v>
       </c>
-      <c r="AB70" s="1">
+      <c r="AE70" s="1">
         <v>63</v>
       </c>
-      <c r="AC70" s="1"/>
-      <c r="AD70" s="1"/>
-      <c r="AE70" s="1"/>
-      <c r="AF70" s="1"/>
-      <c r="AG70" s="1"/>
-      <c r="AH70" s="1"/>
-      <c r="AI70" s="1"/>
-      <c r="AJ70" s="1"/>
-      <c r="AK70" s="1"/>
+      <c r="AF70" s="1">
+        <v>63</v>
+      </c>
+      <c r="AG70" s="1">
+        <v>63</v>
+      </c>
+      <c r="AH70" s="1">
+        <v>63</v>
+      </c>
+      <c r="AI70" s="1">
+        <v>63</v>
+      </c>
+      <c r="AJ70" s="1">
+        <v>63</v>
+      </c>
+      <c r="AK70" s="1">
+        <v>63</v>
+      </c>
       <c r="AL70" s="1"/>
       <c r="AM70" s="1"/>
       <c r="AN70" s="1"/>
@@ -5872,8 +6077,14 @@
       <c r="AS70" s="1"/>
       <c r="AT70" s="1"/>
       <c r="AU70" s="1"/>
-    </row>
-    <row r="71" spans="2:49" x14ac:dyDescent="0.35">
+      <c r="AV70" s="1"/>
+      <c r="AW70" s="1"/>
+      <c r="AX70" s="1"/>
+      <c r="BA70" s="1">
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="71" spans="2:55" x14ac:dyDescent="0.35">
       <c r="B71" s="9"/>
       <c r="C71" s="2">
         <v>8</v>
@@ -5881,10 +6092,18 @@
       <c r="D71" s="1">
         <v>-32</v>
       </c>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
+      <c r="E71" s="1">
+        <v>-80</v>
+      </c>
+      <c r="F71" s="1">
+        <v>-104</v>
+      </c>
+      <c r="G71" s="1">
+        <v>-116</v>
+      </c>
+      <c r="H71" s="1">
+        <v>-122</v>
+      </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -5900,19 +6119,27 @@
       <c r="U71" s="1"/>
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
-      <c r="AA71" s="2">
+      <c r="AA71" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD71" s="2">
         <v>8</v>
       </c>
-      <c r="AB71" s="1">
+      <c r="AE71" s="1">
         <v>127</v>
       </c>
-      <c r="AC71" s="1"/>
-      <c r="AD71" s="1"/>
-      <c r="AE71" s="1"/>
-      <c r="AF71" s="1"/>
-      <c r="AG71" s="1"/>
-      <c r="AH71" s="1"/>
-      <c r="AI71" s="1"/>
+      <c r="AF71" s="1">
+        <v>127</v>
+      </c>
+      <c r="AG71" s="1">
+        <v>127</v>
+      </c>
+      <c r="AH71" s="1">
+        <v>127</v>
+      </c>
+      <c r="AI71" s="1">
+        <v>127</v>
+      </c>
       <c r="AJ71" s="1"/>
       <c r="AK71" s="1"/>
       <c r="AL71" s="1"/>
@@ -5925,8 +6152,14 @@
       <c r="AS71" s="1"/>
       <c r="AT71" s="1"/>
       <c r="AU71" s="1"/>
-    </row>
-    <row r="72" spans="2:49" x14ac:dyDescent="0.35">
+      <c r="AV71" s="1"/>
+      <c r="AW71" s="1"/>
+      <c r="AX71" s="1"/>
+      <c r="BB71" s="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="72" spans="2:55" x14ac:dyDescent="0.35">
       <c r="B72" s="9"/>
       <c r="C72" s="2">
         <v>9</v>
@@ -5934,10 +6167,18 @@
       <c r="D72" s="1">
         <v>-64</v>
       </c>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
+      <c r="E72" s="1">
+        <v>-160</v>
+      </c>
+      <c r="F72" s="1">
+        <v>-208</v>
+      </c>
+      <c r="G72" s="1">
+        <v>-232</v>
+      </c>
+      <c r="H72" s="1">
+        <v>-244</v>
+      </c>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
@@ -5953,19 +6194,27 @@
       <c r="U72" s="1"/>
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
-      <c r="AA72" s="2">
+      <c r="AB72" s="1">
+        <v>-255</v>
+      </c>
+      <c r="AD72" s="2">
         <v>9</v>
       </c>
-      <c r="AB72" s="1">
+      <c r="AE72" s="1">
         <v>255</v>
       </c>
-      <c r="AC72" s="1"/>
-      <c r="AD72" s="1"/>
-      <c r="AE72" s="1"/>
-      <c r="AF72" s="1"/>
-      <c r="AG72" s="1"/>
-      <c r="AH72" s="1"/>
-      <c r="AI72" s="1"/>
+      <c r="AF72" s="1">
+        <v>255</v>
+      </c>
+      <c r="AG72" s="1">
+        <v>255</v>
+      </c>
+      <c r="AH72" s="1">
+        <v>255</v>
+      </c>
+      <c r="AI72" s="1">
+        <v>255</v>
+      </c>
       <c r="AJ72" s="1"/>
       <c r="AK72" s="1"/>
       <c r="AL72" s="1"/>
@@ -5978,8 +6227,14 @@
       <c r="AS72" s="1"/>
       <c r="AT72" s="1"/>
       <c r="AU72" s="1"/>
-    </row>
-    <row r="73" spans="2:49" x14ac:dyDescent="0.35">
+      <c r="AV72" s="1"/>
+      <c r="AW72" s="1"/>
+      <c r="AX72" s="1"/>
+      <c r="BC72" s="1">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="73" spans="2:55" x14ac:dyDescent="0.35">
       <c r="B73" s="10"/>
       <c r="C73" s="2">
         <v>10</v>
@@ -5987,9 +6242,15 @@
       <c r="D73" s="1">
         <v>-128</v>
       </c>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
+      <c r="E73" s="1">
+        <v>-320</v>
+      </c>
+      <c r="F73" s="1">
+        <v>-416</v>
+      </c>
+      <c r="G73" s="1">
+        <v>-464</v>
+      </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -6006,18 +6267,21 @@
       <c r="U73" s="1"/>
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
-      <c r="AA73" s="2">
+      <c r="AD73" s="2">
         <v>10</v>
       </c>
-      <c r="AB73" s="1">
+      <c r="AE73" s="1">
         <v>511</v>
       </c>
-      <c r="AC73" s="1"/>
-      <c r="AD73" s="1"/>
-      <c r="AE73" s="1"/>
-      <c r="AF73" s="1"/>
-      <c r="AG73" s="1"/>
-      <c r="AH73" s="1"/>
+      <c r="AF73" s="1">
+        <v>511</v>
+      </c>
+      <c r="AG73" s="1">
+        <v>511</v>
+      </c>
+      <c r="AH73" s="1">
+        <v>511</v>
+      </c>
       <c r="AI73" s="1"/>
       <c r="AJ73" s="1"/>
       <c r="AK73" s="1"/>
@@ -6031,8 +6295,11 @@
       <c r="AS73" s="1"/>
       <c r="AT73" s="1"/>
       <c r="AU73" s="1"/>
-    </row>
-    <row r="75" spans="2:49" x14ac:dyDescent="0.35">
+      <c r="AV73" s="1"/>
+      <c r="AW73" s="1"/>
+      <c r="AX73" s="1"/>
+    </row>
+    <row r="75" spans="2:55" x14ac:dyDescent="0.35">
       <c r="C75" s="7" t="s">
         <v>8</v>
       </c>
@@ -6043,7 +6310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="2:49" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:55" x14ac:dyDescent="0.35">
       <c r="C77" s="2" t="s">
         <v>0</v>
       </c>
@@ -6183,15 +6450,19 @@
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="2:49" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:55" x14ac:dyDescent="0.35">
       <c r="B78" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C78" s="2">
         <v>2</v>
       </c>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
+      <c r="D78" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E78" s="1">
+        <v>-1</v>
+      </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
@@ -6213,8 +6484,12 @@
       <c r="AA78" s="2">
         <v>2</v>
       </c>
-      <c r="AB78" s="1"/>
-      <c r="AC78" s="1"/>
+      <c r="AB78" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC78" s="1">
+        <v>1</v>
+      </c>
       <c r="AD78" s="1"/>
       <c r="AE78" s="1"/>
       <c r="AF78" s="1"/>
@@ -6234,18 +6509,32 @@
       <c r="AT78" s="1"/>
       <c r="AU78" s="1"/>
     </row>
-    <row r="79" spans="2:49" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:55" x14ac:dyDescent="0.35">
       <c r="B79" s="12"/>
       <c r="C79" s="2">
         <v>3</v>
       </c>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
+      <c r="D79" s="1">
+        <v>-3</v>
+      </c>
+      <c r="E79" s="1">
+        <v>-3</v>
+      </c>
+      <c r="F79" s="1">
+        <v>-3</v>
+      </c>
+      <c r="G79" s="1">
+        <v>-3</v>
+      </c>
+      <c r="H79" s="1">
+        <v>-3</v>
+      </c>
+      <c r="I79" s="1">
+        <v>-3</v>
+      </c>
+      <c r="J79" s="1">
+        <v>-2</v>
+      </c>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
@@ -6262,13 +6551,27 @@
       <c r="AA79" s="2">
         <v>3</v>
       </c>
-      <c r="AB79" s="1"/>
-      <c r="AC79" s="1"/>
-      <c r="AD79" s="1"/>
-      <c r="AE79" s="1"/>
-      <c r="AF79" s="1"/>
-      <c r="AG79" s="1"/>
-      <c r="AH79" s="1"/>
+      <c r="AB79" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC79" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD79" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE79" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF79" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG79" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH79" s="1">
+        <v>2</v>
+      </c>
       <c r="AI79" s="1"/>
       <c r="AJ79" s="1"/>
       <c r="AK79" s="1"/>
@@ -6283,25 +6586,53 @@
       <c r="AT79" s="1"/>
       <c r="AU79" s="1"/>
     </row>
-    <row r="80" spans="2:49" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:55" x14ac:dyDescent="0.35">
       <c r="B80" s="12"/>
       <c r="C80" s="2">
         <v>4</v>
       </c>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
-      <c r="O80" s="1"/>
-      <c r="P80" s="1"/>
-      <c r="Q80" s="1"/>
+      <c r="D80" s="1">
+        <v>-5</v>
+      </c>
+      <c r="E80" s="1">
+        <v>-7</v>
+      </c>
+      <c r="F80" s="1">
+        <v>-7</v>
+      </c>
+      <c r="G80" s="1">
+        <v>-7</v>
+      </c>
+      <c r="H80" s="1">
+        <v>-7</v>
+      </c>
+      <c r="I80" s="1">
+        <v>-7</v>
+      </c>
+      <c r="J80" s="1">
+        <v>-7</v>
+      </c>
+      <c r="K80" s="1">
+        <v>-7</v>
+      </c>
+      <c r="L80" s="1">
+        <v>-7</v>
+      </c>
+      <c r="M80" s="1">
+        <v>-7</v>
+      </c>
+      <c r="N80" s="1">
+        <v>-7</v>
+      </c>
+      <c r="O80" s="1">
+        <v>-7</v>
+      </c>
+      <c r="P80" s="1">
+        <v>-5</v>
+      </c>
+      <c r="Q80" s="1">
+        <v>-2</v>
+      </c>
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
@@ -6311,20 +6642,48 @@
       <c r="AA80" s="2">
         <v>4</v>
       </c>
-      <c r="AB80" s="1"/>
-      <c r="AC80" s="1"/>
-      <c r="AD80" s="1"/>
-      <c r="AE80" s="1"/>
-      <c r="AF80" s="1"/>
-      <c r="AG80" s="1"/>
-      <c r="AH80" s="1"/>
-      <c r="AI80" s="1"/>
-      <c r="AJ80" s="1"/>
-      <c r="AK80" s="1"/>
-      <c r="AL80" s="1"/>
-      <c r="AM80" s="1"/>
-      <c r="AN80" s="1"/>
-      <c r="AO80" s="1"/>
+      <c r="AB80" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC80" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD80" s="1">
+        <v>7</v>
+      </c>
+      <c r="AE80" s="1">
+        <v>7</v>
+      </c>
+      <c r="AF80" s="1">
+        <v>7</v>
+      </c>
+      <c r="AG80" s="1">
+        <v>7</v>
+      </c>
+      <c r="AH80" s="1">
+        <v>7</v>
+      </c>
+      <c r="AI80" s="1">
+        <v>7</v>
+      </c>
+      <c r="AJ80" s="1">
+        <v>7</v>
+      </c>
+      <c r="AK80" s="1">
+        <v>7</v>
+      </c>
+      <c r="AL80" s="1">
+        <v>7</v>
+      </c>
+      <c r="AM80" s="1">
+        <v>7</v>
+      </c>
+      <c r="AN80" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO80" s="1">
+        <v>2</v>
+      </c>
       <c r="AP80" s="1"/>
       <c r="AQ80" s="1"/>
       <c r="AR80" s="1"/>
@@ -6337,14 +6696,30 @@
       <c r="C81" s="2">
         <v>5</v>
       </c>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
+      <c r="D81" s="1">
+        <v>-6</v>
+      </c>
+      <c r="E81" s="1">
+        <v>-11</v>
+      </c>
+      <c r="F81" s="1">
+        <v>-14</v>
+      </c>
+      <c r="G81" s="1">
+        <v>-15</v>
+      </c>
+      <c r="H81" s="1">
+        <v>-15</v>
+      </c>
+      <c r="I81" s="1">
+        <v>-15</v>
+      </c>
+      <c r="J81" s="1">
+        <v>-15</v>
+      </c>
+      <c r="K81" s="1">
+        <v>-15</v>
+      </c>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
@@ -6352,23 +6727,51 @@
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
       <c r="R81" s="1"/>
-      <c r="S81" s="1"/>
-      <c r="T81" s="1"/>
-      <c r="U81" s="1"/>
-      <c r="V81" s="1"/>
-      <c r="W81" s="1"/>
-      <c r="X81" s="1"/>
+      <c r="S81" s="1">
+        <v>-15</v>
+      </c>
+      <c r="T81" s="1">
+        <v>-15</v>
+      </c>
+      <c r="U81" s="1">
+        <v>-15</v>
+      </c>
+      <c r="V81" s="1">
+        <v>-15</v>
+      </c>
+      <c r="W81" s="1">
+        <v>-15</v>
+      </c>
+      <c r="X81" s="1">
+        <v>-3</v>
+      </c>
       <c r="AA81" s="2">
         <v>5</v>
       </c>
-      <c r="AB81" s="1"/>
-      <c r="AC81" s="1"/>
-      <c r="AD81" s="1"/>
-      <c r="AE81" s="1"/>
-      <c r="AF81" s="1"/>
-      <c r="AG81" s="1"/>
-      <c r="AH81" s="1"/>
-      <c r="AI81" s="1"/>
+      <c r="AB81" s="1">
+        <v>7</v>
+      </c>
+      <c r="AC81" s="1">
+        <v>14</v>
+      </c>
+      <c r="AD81" s="1">
+        <v>15</v>
+      </c>
+      <c r="AE81" s="1">
+        <v>15</v>
+      </c>
+      <c r="AF81" s="1">
+        <v>15</v>
+      </c>
+      <c r="AG81" s="1">
+        <v>15</v>
+      </c>
+      <c r="AH81" s="1">
+        <v>15</v>
+      </c>
+      <c r="AI81" s="1">
+        <v>15</v>
+      </c>
       <c r="AJ81" s="1"/>
       <c r="AK81" s="1"/>
       <c r="AL81" s="1"/>
@@ -6376,23 +6779,45 @@
       <c r="AN81" s="1"/>
       <c r="AO81" s="1"/>
       <c r="AP81" s="1"/>
-      <c r="AQ81" s="1"/>
-      <c r="AR81" s="1"/>
-      <c r="AS81" s="1"/>
-      <c r="AT81" s="1"/>
-      <c r="AU81" s="1"/>
-      <c r="AV81" s="1"/>
+      <c r="AQ81" s="1">
+        <v>15</v>
+      </c>
+      <c r="AR81" s="1">
+        <v>15</v>
+      </c>
+      <c r="AS81" s="1">
+        <v>15</v>
+      </c>
+      <c r="AT81" s="1">
+        <v>15</v>
+      </c>
+      <c r="AU81" s="1">
+        <v>14</v>
+      </c>
+      <c r="AV81" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="82" spans="2:49" x14ac:dyDescent="0.35">
       <c r="B82" s="12"/>
       <c r="C82" s="2">
         <v>6</v>
       </c>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
+      <c r="D82" s="1">
+        <v>-8</v>
+      </c>
+      <c r="E82" s="1">
+        <v>-16</v>
+      </c>
+      <c r="F82" s="1">
+        <v>-26</v>
+      </c>
+      <c r="G82" s="1">
+        <v>-28</v>
+      </c>
+      <c r="H82" s="1">
+        <v>-30</v>
+      </c>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
@@ -6408,15 +6833,27 @@
       <c r="U82" s="4"/>
       <c r="V82" s="1"/>
       <c r="W82" s="1"/>
-      <c r="Y82" s="1"/>
+      <c r="Y82" s="1">
+        <v>-3</v>
+      </c>
       <c r="AA82" s="2">
         <v>6</v>
       </c>
-      <c r="AB82" s="1"/>
-      <c r="AC82" s="1"/>
-      <c r="AD82" s="1"/>
-      <c r="AE82" s="1"/>
-      <c r="AF82" s="1"/>
+      <c r="AB82" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC82" s="1">
+        <v>19</v>
+      </c>
+      <c r="AD82" s="1">
+        <v>26</v>
+      </c>
+      <c r="AE82" s="1">
+        <v>28</v>
+      </c>
+      <c r="AF82" s="1">
+        <v>31</v>
+      </c>
       <c r="AG82" s="1"/>
       <c r="AH82" s="1"/>
       <c r="AI82" s="1"/>
@@ -6432,17 +6869,27 @@
       <c r="AS82" s="1"/>
       <c r="AT82" s="1"/>
       <c r="AU82" s="1"/>
-      <c r="AW82" s="1"/>
+      <c r="AW82" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="83" spans="2:49" x14ac:dyDescent="0.35">
       <c r="B83" s="12"/>
       <c r="C83" s="2">
         <v>7</v>
       </c>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
+      <c r="D83" s="1">
+        <v>-13</v>
+      </c>
+      <c r="E83" s="1">
+        <v>-26</v>
+      </c>
+      <c r="F83" s="1">
+        <v>-48</v>
+      </c>
+      <c r="G83" s="1">
+        <v>-53</v>
+      </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
@@ -6462,10 +6909,18 @@
       <c r="AA83" s="2">
         <v>7</v>
       </c>
-      <c r="AB83" s="1"/>
-      <c r="AC83" s="1"/>
-      <c r="AD83" s="1"/>
-      <c r="AE83" s="1"/>
+      <c r="AB83" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC83" s="1">
+        <v>20</v>
+      </c>
+      <c r="AD83" s="1">
+        <v>31</v>
+      </c>
+      <c r="AE83" s="1">
+        <v>48</v>
+      </c>
       <c r="AF83" s="1"/>
       <c r="AG83" s="1"/>
       <c r="AH83" s="1"/>
@@ -6488,9 +6943,15 @@
       <c r="C84" s="2">
         <v>8</v>
       </c>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
+      <c r="D84" s="1">
+        <v>-8</v>
+      </c>
+      <c r="E84" s="1">
+        <v>-28</v>
+      </c>
+      <c r="F84" s="1">
+        <v>-55</v>
+      </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="4"/>
@@ -6511,9 +6972,15 @@
       <c r="AA84" s="2">
         <v>8</v>
       </c>
-      <c r="AB84" s="1"/>
-      <c r="AC84" s="1"/>
-      <c r="AD84" s="1"/>
+      <c r="AB84" s="1">
+        <v>14</v>
+      </c>
+      <c r="AC84" s="1">
+        <v>30</v>
+      </c>
+      <c r="AD84" s="1">
+        <v>57</v>
+      </c>
       <c r="AE84" s="1"/>
       <c r="AF84" s="1"/>
       <c r="AG84" s="1"/>
@@ -6537,9 +7004,15 @@
       <c r="C85" s="2">
         <v>9</v>
       </c>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
+      <c r="D85" s="1">
+        <v>-16</v>
+      </c>
+      <c r="E85" s="1">
+        <v>-38</v>
+      </c>
+      <c r="F85" s="1">
+        <v>-88</v>
+      </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="5"/>
@@ -6560,9 +7033,15 @@
       <c r="AA85" s="2">
         <v>9</v>
       </c>
-      <c r="AB85" s="1"/>
-      <c r="AC85" s="1"/>
-      <c r="AD85" s="1"/>
+      <c r="AB85" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC85" s="1">
+        <v>41</v>
+      </c>
+      <c r="AD85" s="1">
+        <v>86</v>
+      </c>
       <c r="AE85" s="1"/>
       <c r="AF85" s="1"/>
       <c r="AG85" s="1"/>
@@ -6586,8 +7065,12 @@
       <c r="C86" s="2">
         <v>10</v>
       </c>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
+      <c r="D86" s="1">
+        <v>-10</v>
+      </c>
+      <c r="E86" s="1">
+        <v>-38</v>
+      </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="4"/>
@@ -6609,8 +7092,12 @@
       <c r="AA86" s="2">
         <v>10</v>
       </c>
-      <c r="AB86" s="1"/>
-      <c r="AC86" s="1"/>
+      <c r="AB86" s="1">
+        <v>16</v>
+      </c>
+      <c r="AC86" s="1">
+        <v>34</v>
+      </c>
       <c r="AD86" s="1"/>
       <c r="AE86" s="1"/>
       <c r="AF86" s="1"/>
@@ -6777,8 +7264,12 @@
       <c r="C89" s="2">
         <v>2</v>
       </c>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
+      <c r="D89" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E89" s="1">
+        <v>0</v>
+      </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
@@ -6800,8 +7291,12 @@
       <c r="AA89" s="2">
         <v>2</v>
       </c>
-      <c r="AB89" s="1"/>
-      <c r="AC89" s="1"/>
+      <c r="AB89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="1">
+        <v>1</v>
+      </c>
       <c r="AD89" s="1"/>
       <c r="AE89" s="1"/>
       <c r="AF89" s="1"/>
@@ -6826,13 +7321,27 @@
       <c r="C90" s="2">
         <v>3</v>
       </c>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
+      <c r="D90" s="1">
+        <v>-2</v>
+      </c>
+      <c r="E90" s="1">
+        <v>-3</v>
+      </c>
+      <c r="F90" s="1">
+        <v>-3</v>
+      </c>
+      <c r="G90" s="1">
+        <v>-3</v>
+      </c>
+      <c r="H90" s="1">
+        <v>-3</v>
+      </c>
+      <c r="I90" s="1">
+        <v>-2</v>
+      </c>
+      <c r="J90" s="1">
+        <v>-3</v>
+      </c>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
@@ -6849,13 +7358,27 @@
       <c r="AA90" s="2">
         <v>3</v>
       </c>
-      <c r="AB90" s="1"/>
-      <c r="AC90" s="1"/>
-      <c r="AD90" s="1"/>
-      <c r="AE90" s="1"/>
-      <c r="AF90" s="1"/>
-      <c r="AG90" s="1"/>
-      <c r="AH90" s="1"/>
+      <c r="AB90" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC90" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD90" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE90" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF90" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG90" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH90" s="1">
+        <v>-1</v>
+      </c>
       <c r="AI90" s="1"/>
       <c r="AJ90" s="1"/>
       <c r="AK90" s="1"/>
@@ -6875,20 +7398,48 @@
       <c r="C91" s="2">
         <v>4</v>
       </c>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-      <c r="L91" s="1"/>
-      <c r="M91" s="1"/>
-      <c r="N91" s="1"/>
-      <c r="O91" s="1"/>
-      <c r="P91" s="1"/>
-      <c r="Q91" s="1"/>
+      <c r="D91" s="1">
+        <v>-3</v>
+      </c>
+      <c r="E91" s="1">
+        <v>-6</v>
+      </c>
+      <c r="F91" s="1">
+        <v>-7</v>
+      </c>
+      <c r="G91" s="1">
+        <v>-7</v>
+      </c>
+      <c r="H91" s="1">
+        <v>-7</v>
+      </c>
+      <c r="I91" s="1">
+        <v>-7</v>
+      </c>
+      <c r="J91" s="1">
+        <v>-7</v>
+      </c>
+      <c r="K91" s="1">
+        <v>-7</v>
+      </c>
+      <c r="L91" s="1">
+        <v>-7</v>
+      </c>
+      <c r="M91" s="1">
+        <v>-7</v>
+      </c>
+      <c r="N91" s="1">
+        <v>-7</v>
+      </c>
+      <c r="O91" s="1">
+        <v>-6</v>
+      </c>
+      <c r="P91" s="1">
+        <v>-3</v>
+      </c>
+      <c r="Q91" s="1">
+        <v>2</v>
+      </c>
       <c r="R91" s="1"/>
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
@@ -6898,20 +7449,48 @@
       <c r="AA91" s="2">
         <v>4</v>
       </c>
-      <c r="AB91" s="1"/>
-      <c r="AC91" s="1"/>
-      <c r="AD91" s="1"/>
-      <c r="AE91" s="1"/>
-      <c r="AF91" s="1"/>
-      <c r="AG91" s="1"/>
-      <c r="AH91" s="1"/>
-      <c r="AI91" s="1"/>
-      <c r="AJ91" s="1"/>
-      <c r="AK91" s="1"/>
-      <c r="AL91" s="1"/>
-      <c r="AM91" s="1"/>
-      <c r="AN91" s="1"/>
-      <c r="AO91" s="1"/>
+      <c r="AB91" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC91" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD91" s="1">
+        <v>6</v>
+      </c>
+      <c r="AE91" s="1">
+        <v>7</v>
+      </c>
+      <c r="AF91" s="1">
+        <v>7</v>
+      </c>
+      <c r="AG91" s="1">
+        <v>7</v>
+      </c>
+      <c r="AH91" s="1">
+        <v>7</v>
+      </c>
+      <c r="AI91" s="1">
+        <v>7</v>
+      </c>
+      <c r="AJ91" s="1">
+        <v>7</v>
+      </c>
+      <c r="AK91" s="1">
+        <v>7</v>
+      </c>
+      <c r="AL91" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM91" s="1">
+        <v>7</v>
+      </c>
+      <c r="AN91" s="1">
+        <v>6</v>
+      </c>
+      <c r="AO91" s="1">
+        <v>7</v>
+      </c>
       <c r="AP91" s="1"/>
       <c r="AQ91" s="1"/>
       <c r="AR91" s="1"/>
@@ -6924,14 +7503,30 @@
       <c r="C92" s="2">
         <v>5</v>
       </c>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
+      <c r="D92" s="1">
+        <v>-6</v>
+      </c>
+      <c r="E92" s="1">
+        <v>-11</v>
+      </c>
+      <c r="F92" s="1">
+        <v>-14</v>
+      </c>
+      <c r="G92" s="1">
+        <v>-15</v>
+      </c>
+      <c r="H92" s="1">
+        <v>-15</v>
+      </c>
+      <c r="I92" s="1">
+        <v>-15</v>
+      </c>
+      <c r="J92" s="1">
+        <v>-15</v>
+      </c>
+      <c r="K92" s="1">
+        <v>-15</v>
+      </c>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
@@ -6939,23 +7534,51 @@
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
       <c r="R92" s="1"/>
-      <c r="S92" s="1"/>
-      <c r="T92" s="1"/>
-      <c r="U92" s="1"/>
-      <c r="V92" s="1"/>
-      <c r="W92" s="1"/>
-      <c r="X92" s="1"/>
+      <c r="S92" s="1">
+        <v>-15</v>
+      </c>
+      <c r="T92" s="1">
+        <v>-15</v>
+      </c>
+      <c r="U92" s="1">
+        <v>-14</v>
+      </c>
+      <c r="V92" s="1">
+        <v>-15</v>
+      </c>
+      <c r="W92" s="1">
+        <v>-14</v>
+      </c>
+      <c r="X92" s="1">
+        <v>-15</v>
+      </c>
       <c r="AA92" s="2">
         <v>5</v>
       </c>
-      <c r="AB92" s="1"/>
-      <c r="AC92" s="1"/>
-      <c r="AD92" s="1"/>
-      <c r="AE92" s="1"/>
-      <c r="AF92" s="1"/>
-      <c r="AG92" s="1"/>
-      <c r="AH92" s="1"/>
-      <c r="AI92" s="1"/>
+      <c r="AB92" s="1">
+        <v>14</v>
+      </c>
+      <c r="AC92" s="1">
+        <v>15</v>
+      </c>
+      <c r="AD92" s="1">
+        <v>14</v>
+      </c>
+      <c r="AE92" s="1">
+        <v>15</v>
+      </c>
+      <c r="AF92" s="1">
+        <v>14</v>
+      </c>
+      <c r="AG92" s="1">
+        <v>15</v>
+      </c>
+      <c r="AH92" s="1">
+        <v>15</v>
+      </c>
+      <c r="AI92" s="1">
+        <v>15</v>
+      </c>
       <c r="AJ92" s="1"/>
       <c r="AK92" s="1"/>
       <c r="AL92" s="1"/>
@@ -6963,23 +7586,45 @@
       <c r="AN92" s="1"/>
       <c r="AO92" s="1"/>
       <c r="AP92" s="1"/>
-      <c r="AQ92" s="1"/>
-      <c r="AR92" s="1"/>
-      <c r="AS92" s="1"/>
-      <c r="AT92" s="1"/>
-      <c r="AU92" s="1"/>
-      <c r="AV92" s="1"/>
+      <c r="AQ92" s="1">
+        <v>15</v>
+      </c>
+      <c r="AR92" s="1">
+        <v>15</v>
+      </c>
+      <c r="AS92" s="1">
+        <v>15</v>
+      </c>
+      <c r="AT92" s="1">
+        <v>15</v>
+      </c>
+      <c r="AU92" s="1">
+        <v>14</v>
+      </c>
+      <c r="AV92" s="1">
+        <v>-4</v>
+      </c>
     </row>
     <row r="93" spans="2:49" x14ac:dyDescent="0.35">
       <c r="B93" s="9"/>
       <c r="C93" s="2">
         <v>6</v>
       </c>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
+      <c r="D93" s="1">
+        <v>-12</v>
+      </c>
+      <c r="E93" s="1">
+        <v>-22</v>
+      </c>
+      <c r="F93" s="1">
+        <v>-27</v>
+      </c>
+      <c r="G93" s="1">
+        <v>-30</v>
+      </c>
+      <c r="H93" s="1">
+        <v>-31</v>
+      </c>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
@@ -6995,15 +7640,27 @@
       <c r="U93" s="1"/>
       <c r="V93" s="1"/>
       <c r="W93" s="1"/>
-      <c r="Y93" s="1"/>
+      <c r="Y93" s="1">
+        <v>8</v>
+      </c>
       <c r="AA93" s="2">
         <v>6</v>
       </c>
-      <c r="AB93" s="1"/>
-      <c r="AC93" s="1"/>
-      <c r="AD93" s="1"/>
-      <c r="AE93" s="1"/>
-      <c r="AF93" s="1"/>
+      <c r="AB93" s="1">
+        <v>30</v>
+      </c>
+      <c r="AC93" s="1">
+        <v>31</v>
+      </c>
+      <c r="AD93" s="1">
+        <v>30</v>
+      </c>
+      <c r="AE93" s="1">
+        <v>31</v>
+      </c>
+      <c r="AF93" s="1">
+        <v>30</v>
+      </c>
       <c r="AG93" s="1"/>
       <c r="AH93" s="1"/>
       <c r="AI93" s="1"/>
@@ -7019,17 +7676,27 @@
       <c r="AS93" s="1"/>
       <c r="AT93" s="1"/>
       <c r="AU93" s="1"/>
-      <c r="AW93" s="1"/>
+      <c r="AW93" s="1">
+        <v>31</v>
+      </c>
     </row>
     <row r="94" spans="2:49" x14ac:dyDescent="0.35">
       <c r="B94" s="9"/>
       <c r="C94" s="2">
         <v>7</v>
       </c>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
+      <c r="D94" s="1">
+        <v>-24</v>
+      </c>
+      <c r="E94" s="1">
+        <v>-44</v>
+      </c>
+      <c r="F94" s="1">
+        <v>-54</v>
+      </c>
+      <c r="G94" s="1">
+        <v>-59</v>
+      </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
@@ -7049,10 +7716,18 @@
       <c r="AA94" s="2">
         <v>7</v>
       </c>
-      <c r="AB94" s="1"/>
-      <c r="AC94" s="1"/>
-      <c r="AD94" s="1"/>
-      <c r="AE94" s="1"/>
+      <c r="AB94" s="1">
+        <v>62</v>
+      </c>
+      <c r="AC94" s="1">
+        <v>63</v>
+      </c>
+      <c r="AD94" s="1">
+        <v>62</v>
+      </c>
+      <c r="AE94" s="1">
+        <v>63</v>
+      </c>
       <c r="AF94" s="1"/>
       <c r="AG94" s="1"/>
       <c r="AH94" s="1"/>
@@ -7075,9 +7750,15 @@
       <c r="C95" s="2">
         <v>8</v>
       </c>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
+      <c r="D95" s="1">
+        <v>-48</v>
+      </c>
+      <c r="E95" s="1">
+        <v>-88</v>
+      </c>
+      <c r="F95" s="1">
+        <v>-108</v>
+      </c>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -7098,9 +7779,15 @@
       <c r="AA95" s="2">
         <v>8</v>
       </c>
-      <c r="AB95" s="1"/>
-      <c r="AC95" s="1"/>
-      <c r="AD95" s="1"/>
+      <c r="AB95" s="1">
+        <v>126</v>
+      </c>
+      <c r="AC95" s="1">
+        <v>127</v>
+      </c>
+      <c r="AD95" s="1">
+        <v>126</v>
+      </c>
       <c r="AE95" s="1"/>
       <c r="AF95" s="1"/>
       <c r="AG95" s="1"/>
@@ -7124,9 +7811,15 @@
       <c r="C96" s="2">
         <v>9</v>
       </c>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
+      <c r="D96" s="1">
+        <v>-96</v>
+      </c>
+      <c r="E96" s="1">
+        <v>-176</v>
+      </c>
+      <c r="F96" s="1">
+        <v>-216</v>
+      </c>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -7147,9 +7840,15 @@
       <c r="AA96" s="2">
         <v>9</v>
       </c>
-      <c r="AB96" s="1"/>
-      <c r="AC96" s="1"/>
-      <c r="AD96" s="1"/>
+      <c r="AB96" s="1">
+        <v>254</v>
+      </c>
+      <c r="AC96" s="1">
+        <v>255</v>
+      </c>
+      <c r="AD96" s="1">
+        <v>254</v>
+      </c>
       <c r="AE96" s="1"/>
       <c r="AF96" s="1"/>
       <c r="AG96" s="1"/>
@@ -7173,8 +7872,12 @@
       <c r="C97" s="2">
         <v>10</v>
       </c>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
+      <c r="D97" s="1">
+        <v>-192</v>
+      </c>
+      <c r="E97" s="1">
+        <v>-352</v>
+      </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
@@ -7196,8 +7899,12 @@
       <c r="AA97" s="2">
         <v>10</v>
       </c>
-      <c r="AB97" s="1"/>
-      <c r="AC97" s="1"/>
+      <c r="AB97" s="1">
+        <v>510</v>
+      </c>
+      <c r="AC97" s="1">
+        <v>511</v>
+      </c>
       <c r="AD97" s="1"/>
       <c r="AE97" s="1"/>
       <c r="AF97" s="1"/>
@@ -7375,7 +8082,9 @@
       <c r="C102" s="2">
         <v>2</v>
       </c>
-      <c r="D102" s="1"/>
+      <c r="D102" s="1">
+        <v>0</v>
+      </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
@@ -7398,7 +8107,9 @@
       <c r="AA102" s="2">
         <v>2</v>
       </c>
-      <c r="AB102" s="1"/>
+      <c r="AB102" s="1">
+        <v>0</v>
+      </c>
       <c r="AC102" s="1"/>
       <c r="AD102" s="1"/>
       <c r="AE102" s="1"/>
@@ -7424,12 +8135,24 @@
       <c r="C103" s="2">
         <v>3</v>
       </c>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
+      <c r="D103" s="1">
+        <v>-2</v>
+      </c>
+      <c r="E103" s="1">
+        <v>-2</v>
+      </c>
+      <c r="F103" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G103" s="1">
+        <v>-2</v>
+      </c>
+      <c r="H103" s="1">
+        <v>-2</v>
+      </c>
+      <c r="I103" s="1">
+        <v>-2</v>
+      </c>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
@@ -7447,12 +8170,24 @@
       <c r="AA103" s="2">
         <v>3</v>
       </c>
-      <c r="AB103" s="1"/>
-      <c r="AC103" s="1"/>
-      <c r="AD103" s="1"/>
-      <c r="AE103" s="1"/>
-      <c r="AF103" s="1"/>
-      <c r="AG103" s="1"/>
+      <c r="AB103" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC103" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD103" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE103" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF103" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG103" s="1">
+        <v>2</v>
+      </c>
       <c r="AH103" s="1"/>
       <c r="AI103" s="1"/>
       <c r="AJ103" s="1"/>
@@ -7473,19 +8208,45 @@
       <c r="C104" s="2">
         <v>4</v>
       </c>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
-      <c r="K104" s="1"/>
-      <c r="L104" s="1"/>
-      <c r="M104" s="1"/>
-      <c r="N104" s="1"/>
-      <c r="O104" s="1"/>
-      <c r="P104" s="1"/>
+      <c r="D104" s="1">
+        <v>-5</v>
+      </c>
+      <c r="E104" s="1">
+        <v>-6</v>
+      </c>
+      <c r="F104" s="1">
+        <v>-6</v>
+      </c>
+      <c r="G104" s="1">
+        <v>-6</v>
+      </c>
+      <c r="H104" s="1">
+        <v>-6</v>
+      </c>
+      <c r="I104" s="1">
+        <v>-6</v>
+      </c>
+      <c r="J104" s="1">
+        <v>-6</v>
+      </c>
+      <c r="K104" s="1">
+        <v>-6</v>
+      </c>
+      <c r="L104" s="1">
+        <v>-6</v>
+      </c>
+      <c r="M104" s="1">
+        <v>-6</v>
+      </c>
+      <c r="N104" s="1">
+        <v>-6</v>
+      </c>
+      <c r="O104" s="1">
+        <v>-5</v>
+      </c>
+      <c r="P104" s="1">
+        <v>-3</v>
+      </c>
       <c r="Q104" s="1"/>
       <c r="R104" s="1"/>
       <c r="S104" s="1"/>
@@ -7496,19 +8257,45 @@
       <c r="AA104" s="2">
         <v>4</v>
       </c>
-      <c r="AB104" s="1"/>
-      <c r="AC104" s="1"/>
-      <c r="AD104" s="1"/>
-      <c r="AE104" s="1"/>
-      <c r="AF104" s="1"/>
-      <c r="AG104" s="1"/>
-      <c r="AH104" s="1"/>
-      <c r="AI104" s="1"/>
-      <c r="AJ104" s="1"/>
-      <c r="AK104" s="1"/>
-      <c r="AL104" s="1"/>
-      <c r="AM104" s="1"/>
-      <c r="AN104" s="1"/>
+      <c r="AB104" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC104" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD104" s="1">
+        <v>6</v>
+      </c>
+      <c r="AE104" s="1">
+        <v>6</v>
+      </c>
+      <c r="AF104" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG104" s="1">
+        <v>6</v>
+      </c>
+      <c r="AH104" s="1">
+        <v>6</v>
+      </c>
+      <c r="AI104" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ104" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK104" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL104" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM104" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN104" s="1">
+        <v>3</v>
+      </c>
       <c r="AO104" s="1"/>
       <c r="AP104" s="1"/>
       <c r="AQ104" s="1"/>
@@ -7522,10 +8309,18 @@
       <c r="C105" s="2">
         <v>5</v>
       </c>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
+      <c r="D105" s="1">
+        <v>-7</v>
+      </c>
+      <c r="E105" s="1">
+        <v>-11</v>
+      </c>
+      <c r="F105" s="1">
+        <v>-14</v>
+      </c>
+      <c r="G105" s="1">
+        <v>-14</v>
+      </c>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
@@ -7541,15 +8336,27 @@
       <c r="T105" s="1"/>
       <c r="U105" s="1"/>
       <c r="V105" s="1"/>
-      <c r="W105" s="1"/>
-      <c r="X105" s="1"/>
+      <c r="W105" s="1">
+        <v>-14</v>
+      </c>
+      <c r="X105" s="1">
+        <v>-4</v>
+      </c>
       <c r="AA105" s="2">
         <v>5</v>
       </c>
-      <c r="AB105" s="1"/>
-      <c r="AC105" s="1"/>
-      <c r="AD105" s="1"/>
-      <c r="AE105" s="1"/>
+      <c r="AB105" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC105" s="1">
+        <v>14</v>
+      </c>
+      <c r="AD105" s="1">
+        <v>14</v>
+      </c>
+      <c r="AE105" s="1">
+        <v>14</v>
+      </c>
       <c r="AF105" s="1"/>
       <c r="AG105" s="1"/>
       <c r="AH105" s="1"/>
@@ -7565,17 +8372,27 @@
       <c r="AR105" s="1"/>
       <c r="AS105" s="1"/>
       <c r="AT105" s="1"/>
-      <c r="AU105" s="1"/>
-      <c r="AV105" s="1"/>
+      <c r="AU105" s="1">
+        <v>11</v>
+      </c>
+      <c r="AV105" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="106" spans="2:49" x14ac:dyDescent="0.35">
       <c r="B106" s="12"/>
       <c r="C106" s="2">
         <v>6</v>
       </c>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
+      <c r="D106" s="1">
+        <v>-10</v>
+      </c>
+      <c r="E106" s="1">
+        <v>-17</v>
+      </c>
+      <c r="F106" s="1">
+        <v>-26</v>
+      </c>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
@@ -7593,13 +8410,21 @@
       <c r="U106" s="4"/>
       <c r="V106" s="1"/>
       <c r="W106" s="1"/>
-      <c r="Y106" s="1"/>
+      <c r="Y106" s="1">
+        <v>-4</v>
+      </c>
       <c r="AA106" s="2">
         <v>6</v>
       </c>
-      <c r="AB106" s="1"/>
-      <c r="AC106" s="1"/>
-      <c r="AD106" s="1"/>
+      <c r="AB106" s="1">
+        <v>11</v>
+      </c>
+      <c r="AC106" s="1">
+        <v>20</v>
+      </c>
+      <c r="AD106" s="1">
+        <v>26</v>
+      </c>
       <c r="AE106" s="1"/>
       <c r="AF106" s="1"/>
       <c r="AG106" s="1"/>
@@ -7617,15 +8442,21 @@
       <c r="AS106" s="1"/>
       <c r="AT106" s="1"/>
       <c r="AU106" s="1"/>
-      <c r="AW106" s="1"/>
+      <c r="AW106" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="107" spans="2:49" x14ac:dyDescent="0.35">
       <c r="B107" s="12"/>
       <c r="C107" s="2">
         <v>7</v>
       </c>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
+      <c r="D107" s="1">
+        <v>-15</v>
+      </c>
+      <c r="E107" s="1">
+        <v>-28</v>
+      </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
@@ -7647,8 +8478,12 @@
       <c r="AA107" s="2">
         <v>7</v>
       </c>
-      <c r="AB107" s="1"/>
-      <c r="AC107" s="1"/>
+      <c r="AB107" s="1">
+        <v>12</v>
+      </c>
+      <c r="AC107" s="1">
+        <v>24</v>
+      </c>
       <c r="AD107" s="1"/>
       <c r="AE107" s="1"/>
       <c r="AF107" s="1"/>
@@ -7673,8 +8508,12 @@
       <c r="C108" s="2">
         <v>8</v>
       </c>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
+      <c r="D108" s="1">
+        <v>-16</v>
+      </c>
+      <c r="E108" s="1">
+        <v>-32</v>
+      </c>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
@@ -7696,8 +8535,12 @@
       <c r="AA108" s="2">
         <v>8</v>
       </c>
-      <c r="AB108" s="1"/>
-      <c r="AC108" s="1"/>
+      <c r="AB108" s="1">
+        <v>18</v>
+      </c>
+      <c r="AC108" s="1">
+        <v>35</v>
+      </c>
       <c r="AD108" s="1"/>
       <c r="AE108" s="1"/>
       <c r="AF108" s="1"/>
@@ -7722,8 +8565,12 @@
       <c r="C109" s="2">
         <v>9</v>
       </c>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
+      <c r="D109" s="1">
+        <v>-22</v>
+      </c>
+      <c r="E109" s="1">
+        <v>-50</v>
+      </c>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
@@ -7745,8 +8592,12 @@
       <c r="AA109" s="2">
         <v>9</v>
       </c>
-      <c r="AB109" s="1"/>
-      <c r="AC109" s="1"/>
+      <c r="AB109" s="1">
+        <v>22</v>
+      </c>
+      <c r="AC109" s="1">
+        <v>50</v>
+      </c>
       <c r="AD109" s="1"/>
       <c r="AE109" s="1"/>
       <c r="AF109" s="1"/>
@@ -7771,7 +8622,9 @@
       <c r="C110" s="2">
         <v>10</v>
       </c>
-      <c r="D110" s="1"/>
+      <c r="D110" s="1">
+        <v>-19</v>
+      </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
@@ -7794,7 +8647,9 @@
       <c r="AA110" s="2">
         <v>10</v>
       </c>
-      <c r="AB110" s="1"/>
+      <c r="AB110" s="1">
+        <v>20</v>
+      </c>
       <c r="AC110" s="1"/>
       <c r="AD110" s="1"/>
       <c r="AE110" s="1"/>
@@ -7962,7 +8817,9 @@
       <c r="C113" s="2">
         <v>2</v>
       </c>
-      <c r="D113" s="1"/>
+      <c r="D113" s="1">
+        <v>0</v>
+      </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
@@ -7985,7 +8842,9 @@
       <c r="AA113" s="2">
         <v>2</v>
       </c>
-      <c r="AB113" s="1"/>
+      <c r="AB113" s="1">
+        <v>0</v>
+      </c>
       <c r="AC113" s="1"/>
       <c r="AD113" s="1"/>
       <c r="AE113" s="1"/>
@@ -8011,12 +8870,24 @@
       <c r="C114" s="2">
         <v>3</v>
       </c>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
+      <c r="D114" s="1">
+        <v>-2</v>
+      </c>
+      <c r="E114" s="1">
+        <v>-2</v>
+      </c>
+      <c r="F114" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G114" s="1">
+        <v>-2</v>
+      </c>
+      <c r="H114" s="1">
+        <v>-2</v>
+      </c>
+      <c r="I114" s="1">
+        <v>-2</v>
+      </c>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
@@ -8034,12 +8905,24 @@
       <c r="AA114" s="2">
         <v>3</v>
       </c>
-      <c r="AB114" s="1"/>
-      <c r="AC114" s="1"/>
-      <c r="AD114" s="1"/>
-      <c r="AE114" s="1"/>
-      <c r="AF114" s="1"/>
-      <c r="AG114" s="1"/>
+      <c r="AB114" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC114" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD114" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE114" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF114" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG114" s="1">
+        <v>0</v>
+      </c>
       <c r="AH114" s="1"/>
       <c r="AI114" s="1"/>
       <c r="AJ114" s="1"/>
@@ -8060,19 +8943,45 @@
       <c r="C115" s="2">
         <v>4</v>
       </c>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
-      <c r="J115" s="1"/>
-      <c r="K115" s="1"/>
-      <c r="L115" s="1"/>
-      <c r="M115" s="1"/>
-      <c r="N115" s="1"/>
-      <c r="O115" s="1"/>
-      <c r="P115" s="1"/>
+      <c r="D115" s="1">
+        <v>-4</v>
+      </c>
+      <c r="E115" s="1">
+        <v>-6</v>
+      </c>
+      <c r="F115" s="1">
+        <v>-6</v>
+      </c>
+      <c r="G115" s="1">
+        <v>-6</v>
+      </c>
+      <c r="H115" s="1">
+        <v>-6</v>
+      </c>
+      <c r="I115" s="1">
+        <v>-6</v>
+      </c>
+      <c r="J115" s="1">
+        <v>-6</v>
+      </c>
+      <c r="K115" s="1">
+        <v>-6</v>
+      </c>
+      <c r="L115" s="1">
+        <v>-6</v>
+      </c>
+      <c r="M115" s="1">
+        <v>-6</v>
+      </c>
+      <c r="N115" s="1">
+        <v>-6</v>
+      </c>
+      <c r="O115" s="1">
+        <v>-4</v>
+      </c>
+      <c r="P115" s="1">
+        <v>1</v>
+      </c>
       <c r="Q115" s="1"/>
       <c r="R115" s="1"/>
       <c r="S115" s="1"/>
@@ -8083,19 +8992,45 @@
       <c r="AA115" s="2">
         <v>4</v>
       </c>
-      <c r="AB115" s="1"/>
-      <c r="AC115" s="1"/>
-      <c r="AD115" s="1"/>
-      <c r="AE115" s="1"/>
-      <c r="AF115" s="1"/>
-      <c r="AG115" s="1"/>
-      <c r="AH115" s="1"/>
-      <c r="AI115" s="1"/>
-      <c r="AJ115" s="1"/>
-      <c r="AK115" s="1"/>
-      <c r="AL115" s="1"/>
-      <c r="AM115" s="1"/>
-      <c r="AN115" s="1"/>
+      <c r="AB115" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC115" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD115" s="1">
+        <v>6</v>
+      </c>
+      <c r="AE115" s="1">
+        <v>6</v>
+      </c>
+      <c r="AF115" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG115" s="1">
+        <v>6</v>
+      </c>
+      <c r="AH115" s="1">
+        <v>6</v>
+      </c>
+      <c r="AI115" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ115" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK115" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL115" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM115" s="1">
+        <v>6</v>
+      </c>
+      <c r="AN115" s="1">
+        <v>6</v>
+      </c>
       <c r="AO115" s="1"/>
       <c r="AP115" s="1"/>
       <c r="AQ115" s="1"/>
@@ -8109,10 +9044,18 @@
       <c r="C116" s="2">
         <v>5</v>
       </c>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
+      <c r="D116" s="1">
+        <v>-7</v>
+      </c>
+      <c r="E116" s="1">
+        <v>-12</v>
+      </c>
+      <c r="F116" s="1">
+        <v>-14</v>
+      </c>
+      <c r="G116" s="1">
+        <v>-14</v>
+      </c>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
@@ -8128,15 +9071,27 @@
       <c r="T116" s="1"/>
       <c r="U116" s="1"/>
       <c r="V116" s="1"/>
-      <c r="W116" s="1"/>
-      <c r="X116" s="1"/>
+      <c r="W116" s="1">
+        <v>-14</v>
+      </c>
+      <c r="X116" s="1">
+        <v>-14</v>
+      </c>
       <c r="AA116" s="2">
         <v>5</v>
       </c>
-      <c r="AB116" s="1"/>
-      <c r="AC116" s="1"/>
-      <c r="AD116" s="1"/>
-      <c r="AE116" s="1"/>
+      <c r="AB116" s="1">
+        <v>14</v>
+      </c>
+      <c r="AC116" s="1">
+        <v>14</v>
+      </c>
+      <c r="AD116" s="1">
+        <v>14</v>
+      </c>
+      <c r="AE116" s="1">
+        <v>14</v>
+      </c>
       <c r="AF116" s="1"/>
       <c r="AG116" s="1"/>
       <c r="AH116" s="1"/>
@@ -8152,17 +9107,27 @@
       <c r="AR116" s="1"/>
       <c r="AS116" s="1"/>
       <c r="AT116" s="1"/>
-      <c r="AU116" s="1"/>
-      <c r="AV116" s="1"/>
+      <c r="AU116" s="1">
+        <v>12</v>
+      </c>
+      <c r="AV116" s="1">
+        <v>-2</v>
+      </c>
     </row>
     <row r="117" spans="2:49" x14ac:dyDescent="0.35">
       <c r="B117" s="9"/>
       <c r="C117" s="2">
         <v>6</v>
       </c>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
+      <c r="D117" s="1">
+        <v>-14</v>
+      </c>
+      <c r="E117" s="1">
+        <v>-23</v>
+      </c>
+      <c r="F117" s="1">
+        <v>-28</v>
+      </c>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
@@ -8180,13 +9145,21 @@
       <c r="U117" s="1"/>
       <c r="V117" s="1"/>
       <c r="W117" s="1"/>
-      <c r="Y117" s="1"/>
+      <c r="Y117" s="1">
+        <v>4</v>
+      </c>
       <c r="AA117" s="2">
         <v>6</v>
       </c>
-      <c r="AB117" s="1"/>
-      <c r="AC117" s="1"/>
-      <c r="AD117" s="1"/>
+      <c r="AB117" s="1">
+        <v>30</v>
+      </c>
+      <c r="AC117" s="1">
+        <v>30</v>
+      </c>
+      <c r="AD117" s="1">
+        <v>30</v>
+      </c>
       <c r="AE117" s="1"/>
       <c r="AF117" s="1"/>
       <c r="AG117" s="1"/>
@@ -8204,15 +9177,21 @@
       <c r="AS117" s="1"/>
       <c r="AT117" s="1"/>
       <c r="AU117" s="1"/>
-      <c r="AW117" s="1"/>
+      <c r="AW117" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="118" spans="2:49" x14ac:dyDescent="0.35">
       <c r="B118" s="9"/>
       <c r="C118" s="2">
         <v>7</v>
       </c>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
+      <c r="D118" s="1">
+        <v>-28</v>
+      </c>
+      <c r="E118" s="1">
+        <v>-46</v>
+      </c>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
@@ -8234,8 +9213,12 @@
       <c r="AA118" s="2">
         <v>7</v>
       </c>
-      <c r="AB118" s="1"/>
-      <c r="AC118" s="1"/>
+      <c r="AB118" s="1">
+        <v>62</v>
+      </c>
+      <c r="AC118" s="1">
+        <v>62</v>
+      </c>
       <c r="AD118" s="1"/>
       <c r="AE118" s="1"/>
       <c r="AF118" s="1"/>
@@ -8260,8 +9243,12 @@
       <c r="C119" s="2">
         <v>8</v>
       </c>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
+      <c r="D119" s="1">
+        <v>-56</v>
+      </c>
+      <c r="E119" s="1">
+        <v>-92</v>
+      </c>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
@@ -8283,8 +9270,12 @@
       <c r="AA119" s="2">
         <v>8</v>
       </c>
-      <c r="AB119" s="1"/>
-      <c r="AC119" s="1"/>
+      <c r="AB119" s="1">
+        <v>126</v>
+      </c>
+      <c r="AC119" s="1">
+        <v>126</v>
+      </c>
       <c r="AD119" s="1"/>
       <c r="AE119" s="1"/>
       <c r="AF119" s="1"/>
@@ -8309,8 +9300,12 @@
       <c r="C120" s="2">
         <v>9</v>
       </c>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
+      <c r="D120" s="1">
+        <v>-112</v>
+      </c>
+      <c r="E120" s="1">
+        <v>-184</v>
+      </c>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
@@ -8332,8 +9327,12 @@
       <c r="AA120" s="2">
         <v>9</v>
       </c>
-      <c r="AB120" s="1"/>
-      <c r="AC120" s="1"/>
+      <c r="AB120" s="1">
+        <v>254</v>
+      </c>
+      <c r="AC120" s="1">
+        <v>254</v>
+      </c>
       <c r="AD120" s="1"/>
       <c r="AE120" s="1"/>
       <c r="AF120" s="1"/>
@@ -8358,7 +9357,9 @@
       <c r="C121" s="2">
         <v>10</v>
       </c>
-      <c r="D121" s="1"/>
+      <c r="D121" s="1">
+        <v>-224</v>
+      </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
@@ -8381,7 +9382,9 @@
       <c r="AA121" s="2">
         <v>10</v>
       </c>
-      <c r="AB121" s="1"/>
+      <c r="AB121" s="1">
+        <v>510</v>
+      </c>
       <c r="AC121" s="1"/>
       <c r="AD121" s="1"/>
       <c r="AE121" s="1"/>
@@ -9602,6 +10605,7 @@
     <mergeCell ref="B41:B49"/>
     <mergeCell ref="B54:B62"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="22" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>